--- a/jyx2/Assets/Mods/PLUS/Configs/游戏设置.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/游戏设置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSettings</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>升级经验，英文逗号分割</t>
+  </si>
+  <si>
+    <t>PLAYER_MOVE_SPEED</t>
+  </si>
+  <si>
+    <t>主角移动速度</t>
+  </si>
+  <si>
+    <t>PLAYER_MOVE_SPEED_WORLD_MAP</t>
+  </si>
+  <si>
+    <t>大地图移动速度</t>
   </si>
 </sst>
 </file>
@@ -1269,8 +1281,8 @@
   <sheetPr/>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C38:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -1695,6 +1707,36 @@
         <v>62</v>
       </c>
     </row>
+    <row r="31" customFormat="1" spans="1:8">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:8">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="2"/>
+    </row>
     <row r="82" spans="2:2">
       <c r="B82" s="10"/>
     </row>

--- a/jyx2/Assets/Mods/PLUS/Configs/游戏设置.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/游戏设置.xlsx
@@ -1281,8 +1281,8 @@
   <sheetPr/>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C38:C39"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -1715,7 +1715,7 @@
         <v>63</v>
       </c>
       <c r="C31" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>64</v>
@@ -1730,7 +1730,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>66</v>

--- a/jyx2/Assets/Mods/PLUS/Configs/游戏设置.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/游戏设置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSettings</t>
   </si>
@@ -268,6 +268,18 @@
   </si>
   <si>
     <t>大地图移动速度</t>
+  </si>
+  <si>
+    <t>Attackup</t>
+  </si>
+  <si>
+    <t>攻击上限</t>
+  </si>
+  <si>
+    <t>Defenceup</t>
+  </si>
+  <si>
+    <t>防御上限</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1293,7 @@
   <sheetPr/>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -1737,6 +1749,34 @@
       </c>
       <c r="H32" s="2"/>
     </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="82" spans="2:2">
       <c r="B82" s="10"/>
     </row>

--- a/jyx2/Assets/Mods/PLUS/Configs/游戏设置.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/游戏设置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11295" windowHeight="14190"/>
+    <workbookView windowWidth="12750" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -1282,7 +1282,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1730,7 +1730,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>66</v>
